--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_84.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_84.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,448 +488,462 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:00.600000', '0:00:11.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:08.700000', '0:00:25.020000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2202898550724638</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(122.78, 125.0)]</t>
+          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(66.1, 84.78)]</t>
+          <t>[('0:00:06.280000', '0:00:12.060000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>[('0:00:03.660000', '0:00:07.560000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_268</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1093350383631713</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['E', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(87.44, 110.44)]</t>
+          <t>[['B', 'E', 'E/7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(81.62, 103.56)]</t>
+          <t>[('0:00:06.090000', '0:00:13.659705')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:09.201473', '0:00:13.148866')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(17.34, 24.4)]</t>
+          <t>[('0:00:21.440000', '0:00:24.720000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:07.760000', '0:00:15.800000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(10.1, 63.44)]</t>
+          <t>[('0:00:00.260000', '0:00:07.820000'), ('0:00:55.680000', '0:01:02.280000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:03.100000', '0:01:04.500000'), ('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_72</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3517156862745098</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.82, 145.84)]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.92, 149.88)]</t>
+          <t>[('0:00:08.340000', '0:00:12.240000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:25.606371', '0:00:42.394399')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'F:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(5.68, 9.64)]</t>
+          <t>[('0:01:06.980000', '0:01:23.840000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_151</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.475</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(96.06, 107.42)]</t>
+          <t>[['F', 'Bb', 'F']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.32, 49.38)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:23.586235', '0:00:28.578526')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(112.14, 117.46)]</t>
+          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(121.74, 128.48)]</t>
+          <t>[('0:00:35.140000', '0:00:39.900000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:32.440000', '0:00:34.800000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>schubert-winterreise_108</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(9.48, 33.68)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
@@ -933,272 +952,236 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_244</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.1902173913043478</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[['Bb', 'F', 'F']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(88.48, 100.38), (40.38, 42.28)]</t>
+          <t>[('0:00:32.351768', '0:00:40.095623')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:20.130022', '0:00:25.095075')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_102</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(90.6, 101.18), (42.44, 44.36)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[('0:00:07.760000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:06.740000', '0:00:21.540000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_149</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96)]</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:10.560000', '0:01:09.420000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(23.26, 29.8)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(72.52, 90.98)]</t>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07480106100795755</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A:maj6']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(64.32, 66.92)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(4.511043, 10.664331)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:01:06.760000', '0:01:15.700000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
